--- a/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6874F2-CB96-4592-9ED8-B0B4DCDC4C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D46C4-2F5A-4B6E-832C-EE1323A3E235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,20 @@
     <sheet name="提回" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="215">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -906,6 +915,14 @@
   </si>
   <si>
     <t>TitaTxCd</t>
+  </si>
+  <si>
+    <t>facmNoRepayAcctFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND RepayBank = ,AND RepayAcct = </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1589,7 +1606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -2262,11 +2279,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2456,6 +2473,14 @@
       </c>
       <c r="C20" s="1" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
